--- a/CoinData.xlsx
+++ b/CoinData.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REP" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GAS" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ELF" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DOT" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AXS" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="XRP" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="WAVES" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="SRM" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="SC" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="OMG" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,14 +472,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2021/05/05_22:13:57</t>
+          <t>2021/05/05_22:38:03</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>51760</v>
+        <v>1945</v>
       </c>
       <c r="C2" t="n">
-        <v>51760</v>
+        <v>1945</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -492,6 +492,56 @@
       </c>
       <c r="G2" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>2021/05/05_22:39:59</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1945</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1945</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.002570694087404</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2021/05/05_22:43:04</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1945</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1930</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9922879177377892</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.002570694087404</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1930</v>
       </c>
     </row>
   </sheetData>
@@ -505,7 +555,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,14 +598,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2021/05/05_22:13:57</t>
+          <t>2021/05/05_22:38:03</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18480</v>
+        <v>45360</v>
       </c>
       <c r="C2" t="n">
-        <v>18480</v>
+        <v>45360</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -567,6 +617,156 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>2021/05/05_22:39:59</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C3" t="n">
+        <v>44000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9700176366843033</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2021/05/05_22:44:59</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C4" t="n">
+        <v>43390</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9565696649029982</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2021/05/05_22:49:58</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C5" t="n">
+        <v>43350</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9556878306878307</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>2021/05/05_22:54:57</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C6" t="n">
+        <v>42860</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9448853615520282</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>2021/05/05_22:59:57</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C7" t="n">
+        <v>42730</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9420194003527337</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>2021/05/05_23:04:56</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C8" t="n">
+        <v>42800</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9435626102292769</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -581,7 +781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,14 +824,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2021/05/05_22:13:57</t>
+          <t>2021/05/05_22:38:03</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>506</v>
+        <v>13810</v>
       </c>
       <c r="C2" t="n">
-        <v>506</v>
+        <v>13810</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -644,6 +844,56 @@
       </c>
       <c r="G2" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>2021/05/05_22:39:59</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>13810</v>
+      </c>
+      <c r="C3" t="n">
+        <v>13700</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9920347574221579</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.001448225923244</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2021/05/05_22:43:04</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>13810</v>
+      </c>
+      <c r="C4" t="n">
+        <v>13730</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9942070963070239</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.001448225923244</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13750</v>
       </c>
     </row>
   </sheetData>
@@ -657,7 +907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,14 +950,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2021/05/05_22:13:57</t>
+          <t>2021/05/05_22:48:02</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>46900</v>
+        <v>49.6</v>
       </c>
       <c r="C2" t="n">
-        <v>46900</v>
+        <v>49.6</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -720,6 +970,56 @@
       </c>
       <c r="G2" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>2021/05/05_22:49:58</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.002016129032258</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.002016129032258</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2021/05/05_22:53:03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.002016129032258</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.006048387096774</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>49.7</v>
       </c>
     </row>
   </sheetData>
@@ -733,7 +1033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -776,14 +1076,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2021/05/05_22:13:57</t>
+          <t>2021/05/05_22:49:02</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10220</v>
+        <v>12070</v>
       </c>
       <c r="C2" t="n">
-        <v>10220</v>
+        <v>12070</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -796,6 +1096,81 @@
       </c>
       <c r="G2" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>2021/05/05_22:49:58</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>12070</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.002485501242751</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.002485501242751</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2021/05/05_22:54:57</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>12070</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12190</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.009942004971002</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.018227009113505</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2021/05/05_22:54:58</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>12070</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12140</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.005799502899752</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.018227009113505</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>12170</v>
       </c>
     </row>
   </sheetData>
